--- a/termo2/exp2/data_elec.xlsx
+++ b/termo2/exp2/data_elec.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rifusaki/Documents/repos/college/termo2/exp2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8610A34-E371-CD41-BDD6-343C0F245B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F22E33-F5DE-1443-82BB-91A0C9F3EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="920" windowWidth="14480" windowHeight="16740" xr2:uid="{CF0600F9-D7F9-8143-B0A7-CFC5C3010981}"/>
+    <workbookView xWindow="14760" yWindow="920" windowWidth="14480" windowHeight="16740" activeTab="4" xr2:uid="{CF0600F9-D7F9-8143-B0A7-CFC5C3010981}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="5V" sheetId="1" r:id="rId1"/>
+    <sheet name="7Va" sheetId="2" r:id="rId2"/>
+    <sheet name="7Vs" sheetId="3" r:id="rId3"/>
+    <sheet name="5Va" sheetId="4" r:id="rId4"/>
+    <sheet name="5Vs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+  <si>
+    <t>t</t>
+  </si>
   <si>
     <t>tiempo</t>
   </si>
@@ -45,6 +52,36 @@
   </si>
   <si>
     <t>Kohm</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Magua</t>
+  </si>
+  <si>
+    <t>Agitando el agua</t>
+  </si>
+  <si>
+    <t>Kohms</t>
+  </si>
+  <si>
+    <t>Sin agitar el agua</t>
   </si>
 </sst>
 </file>
@@ -80,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,58 +454,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3330D9FD-B4CA-E04A-A2F5-1303214AFE33}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>120.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>31.18</v>
       </c>
       <c r="B3">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>47.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>42.09</v>
       </c>
       <c r="B4">
         <v>119.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>112.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>52.32</v>
       </c>
       <c r="B5">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>63.15</v>
       </c>
@@ -475,7 +549,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>71.040000000000006</v>
       </c>
@@ -483,7 +557,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>81.36</v>
       </c>
@@ -491,7 +565,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>91.18</v>
       </c>
@@ -499,7 +573,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>114.44</v>
       </c>
@@ -507,7 +581,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>145.84</v>
       </c>
@@ -515,7 +589,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>173.38</v>
       </c>
@@ -523,7 +597,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>206.13</v>
       </c>
@@ -531,7 +605,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>239.99</v>
       </c>
@@ -539,7 +613,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>273.05</v>
       </c>
@@ -547,7 +621,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>307.67</v>
       </c>
@@ -609,6 +683,818 @@
       </c>
       <c r="B23">
         <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3E5AD1-022D-794E-820B-45511B6DD51D}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>112.7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>16.62</v>
+      </c>
+      <c r="B3">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>25.36</v>
+      </c>
+      <c r="B4">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>31.56</v>
+      </c>
+      <c r="B5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>37.69</v>
+      </c>
+      <c r="B6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>42.83</v>
+      </c>
+      <c r="B7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>48.45</v>
+      </c>
+      <c r="B8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>55.14</v>
+      </c>
+      <c r="B9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>71.61</v>
+      </c>
+      <c r="B11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>78.69</v>
+      </c>
+      <c r="B12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>86.05</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>93.5</v>
+      </c>
+      <c r="B14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>101.61</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>117.58</v>
+      </c>
+      <c r="B16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>126.49</v>
+      </c>
+      <c r="B17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>135.43</v>
+      </c>
+      <c r="B18">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>144.49</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>155.5</v>
+      </c>
+      <c r="B20">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CEAC5D-E8A1-EA4E-A53E-39FF1CF47B1F}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>122.9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6.21</v>
+      </c>
+      <c r="B3">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11.74</v>
+      </c>
+      <c r="B4">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>17.39</v>
+      </c>
+      <c r="B5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>23.85</v>
+      </c>
+      <c r="B6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>31.01</v>
+      </c>
+      <c r="B7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>39.35</v>
+      </c>
+      <c r="B8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>51.18</v>
+      </c>
+      <c r="B9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>69.12</v>
+      </c>
+      <c r="B10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>98.05</v>
+      </c>
+      <c r="B11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>116.35</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>134.53</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>152.82</v>
+      </c>
+      <c r="B14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>171.05</v>
+      </c>
+      <c r="B15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>191.09</v>
+      </c>
+      <c r="B16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>209.77</v>
+      </c>
+      <c r="B17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>230.12</v>
+      </c>
+      <c r="B18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>252.24</v>
+      </c>
+      <c r="B19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>292.23</v>
+      </c>
+      <c r="B20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>315.92</v>
+      </c>
+      <c r="B21">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>342.82</v>
+      </c>
+      <c r="B22">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3C181D-2B01-B549-B4A1-4025B9992502}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>121.6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10.9</v>
+      </c>
+      <c r="B3">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>17.57</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>23.3</v>
+      </c>
+      <c r="B5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>28.25</v>
+      </c>
+      <c r="B6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>38.54</v>
+      </c>
+      <c r="B8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>43.94</v>
+      </c>
+      <c r="B9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>51.57</v>
+      </c>
+      <c r="B10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>59.78</v>
+      </c>
+      <c r="B11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="B12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>83.59</v>
+      </c>
+      <c r="B13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>97.66</v>
+      </c>
+      <c r="B14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>130.62</v>
+      </c>
+      <c r="B15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>172.61</v>
+      </c>
+      <c r="B16">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>206.67</v>
+      </c>
+      <c r="B17">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBFCB9A-DB7C-F54C-8B08-F0AA5C4925F0}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>122.2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.33</v>
+      </c>
+      <c r="B3">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12.54</v>
+      </c>
+      <c r="B4">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>21.78</v>
+      </c>
+      <c r="B6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>26.37</v>
+      </c>
+      <c r="B7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30.67</v>
+      </c>
+      <c r="B8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>36.56</v>
+      </c>
+      <c r="B9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>42.77</v>
+      </c>
+      <c r="B10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>50.35</v>
+      </c>
+      <c r="B11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>60.85</v>
+      </c>
+      <c r="B12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>76.27</v>
+      </c>
+      <c r="B13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>98.95</v>
+      </c>
+      <c r="B14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="B15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>168.5</v>
+      </c>
+      <c r="B16">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>201.86</v>
+      </c>
+      <c r="B17">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>235.67</v>
+      </c>
+      <c r="B18">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>274.52999999999997</v>
+      </c>
+      <c r="B19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>318.24</v>
+      </c>
+      <c r="B20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>381.75</v>
+      </c>
+      <c r="B21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>452.32</v>
+      </c>
+      <c r="B22">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>483.91</v>
+      </c>
+      <c r="B23">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
